--- a/predictions/predictions.xlsx
+++ b/predictions/predictions.xlsx
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -7134,7 +7134,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -9534,7 +9534,7 @@
         <v>1143</v>
       </c>
       <c r="B1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -10798,7 +10798,7 @@
         <v>1301</v>
       </c>
       <c r="B1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10918,7 +10918,7 @@
         <v>1316</v>
       </c>
       <c r="B1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -11198,7 +11198,7 @@
         <v>1351</v>
       </c>
       <c r="B1353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11246,7 +11246,7 @@
         <v>1357</v>
       </c>
       <c r="B1359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11462,7 +11462,7 @@
         <v>1384</v>
       </c>
       <c r="B1386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11782,7 +11782,7 @@
         <v>1424</v>
       </c>
       <c r="B1426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -12382,7 +12382,7 @@
         <v>1499</v>
       </c>
       <c r="B1501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12550,7 +12550,7 @@
         <v>1520</v>
       </c>
       <c r="B1522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12910,7 +12910,7 @@
         <v>1565</v>
       </c>
       <c r="B1567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -13014,7 +13014,7 @@
         <v>1578</v>
       </c>
       <c r="B1580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -14150,7 +14150,7 @@
         <v>1720</v>
       </c>
       <c r="B1722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14294,7 +14294,7 @@
         <v>1738</v>
       </c>
       <c r="B1740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -15062,7 +15062,7 @@
         <v>1834</v>
       </c>
       <c r="B1836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15078,7 +15078,7 @@
         <v>1836</v>
       </c>
       <c r="B1838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15942,7 +15942,7 @@
         <v>1944</v>
       </c>
       <c r="B1946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -17134,7 +17134,7 @@
         <v>2093</v>
       </c>
       <c r="B2095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17470,7 +17470,7 @@
         <v>2135</v>
       </c>
       <c r="B2137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -18246,7 +18246,7 @@
         <v>2232</v>
       </c>
       <c r="B2234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -19326,7 +19326,7 @@
         <v>2367</v>
       </c>
       <c r="B2369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19478,7 +19478,7 @@
         <v>2386</v>
       </c>
       <c r="B2388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19502,7 +19502,7 @@
         <v>2389</v>
       </c>
       <c r="B2391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19950,7 +19950,7 @@
         <v>2445</v>
       </c>
       <c r="B2447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20030,7 +20030,7 @@
         <v>2455</v>
       </c>
       <c r="B2457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20126,7 +20126,7 @@
         <v>2467</v>
       </c>
       <c r="B2469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20150,7 +20150,7 @@
         <v>2470</v>
       </c>
       <c r="B2472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20246,7 +20246,7 @@
         <v>2482</v>
       </c>
       <c r="B2484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:2">
@@ -20574,7 +20574,7 @@
         <v>2523</v>
       </c>
       <c r="B2525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20702,7 +20702,7 @@
         <v>2539</v>
       </c>
       <c r="B2541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20950,7 +20950,7 @@
         <v>2570</v>
       </c>
       <c r="B2572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -21086,7 +21086,7 @@
         <v>2587</v>
       </c>
       <c r="B2589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21214,7 +21214,7 @@
         <v>2603</v>
       </c>
       <c r="B2605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2606" spans="1:2">
@@ -21262,7 +21262,7 @@
         <v>2609</v>
       </c>
       <c r="B2611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21550,7 +21550,7 @@
         <v>2645</v>
       </c>
       <c r="B2647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -22350,7 +22350,7 @@
         <v>2745</v>
       </c>
       <c r="B2747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -23118,7 +23118,7 @@
         <v>2841</v>
       </c>
       <c r="B2843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23398,7 +23398,7 @@
         <v>2876</v>
       </c>
       <c r="B2878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2879" spans="1:2">
@@ -23862,7 +23862,7 @@
         <v>2934</v>
       </c>
       <c r="B2936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -24182,7 +24182,7 @@
         <v>2974</v>
       </c>
       <c r="B2976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24710,7 +24710,7 @@
         <v>3040</v>
       </c>
       <c r="B3042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3043" spans="1:2">
@@ -25230,7 +25230,7 @@
         <v>3105</v>
       </c>
       <c r="B3107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25990,7 +25990,7 @@
         <v>3200</v>
       </c>
       <c r="B3202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26270,7 +26270,7 @@
         <v>3235</v>
       </c>
       <c r="B3237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -27118,7 +27118,7 @@
         <v>3341</v>
       </c>
       <c r="B3343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27406,7 +27406,7 @@
         <v>3377</v>
       </c>
       <c r="B3379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27590,7 +27590,7 @@
         <v>3400</v>
       </c>
       <c r="B3402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
@@ -27646,7 +27646,7 @@
         <v>3407</v>
       </c>
       <c r="B3409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27774,7 +27774,7 @@
         <v>3423</v>
       </c>
       <c r="B3425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -28718,7 +28718,7 @@
         <v>3541</v>
       </c>
       <c r="B3543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28766,7 +28766,7 @@
         <v>3547</v>
       </c>
       <c r="B3549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -30550,7 +30550,7 @@
         <v>3770</v>
       </c>
       <c r="B3772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30598,7 +30598,7 @@
         <v>3776</v>
       </c>
       <c r="B3778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30654,7 +30654,7 @@
         <v>3783</v>
       </c>
       <c r="B3785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -31070,7 +31070,7 @@
         <v>3835</v>
       </c>
       <c r="B3837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31190,7 +31190,7 @@
         <v>3850</v>
       </c>
       <c r="B3852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31350,7 +31350,7 @@
         <v>3870</v>
       </c>
       <c r="B3872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31958,7 +31958,7 @@
         <v>3946</v>
       </c>
       <c r="B3948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31990,7 +31990,7 @@
         <v>3950</v>
       </c>
       <c r="B3952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32078,7 +32078,7 @@
         <v>3961</v>
       </c>
       <c r="B3963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32118,7 +32118,7 @@
         <v>3966</v>
       </c>
       <c r="B3968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32502,7 +32502,7 @@
         <v>4014</v>
       </c>
       <c r="B4016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32630,7 +32630,7 @@
         <v>4030</v>
       </c>
       <c r="B4032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4033" spans="1:2">
@@ -33102,7 +33102,7 @@
         <v>4089</v>
       </c>
       <c r="B4091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33566,7 +33566,7 @@
         <v>4147</v>
       </c>
       <c r="B4149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33606,7 +33606,7 @@
         <v>4152</v>
       </c>
       <c r="B4154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4155" spans="1:2">

--- a/predictions/predictions.xlsx
+++ b/predictions/predictions.xlsx
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7174,7 +7174,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9334,7 +9334,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9534,7 +9534,7 @@
         <v>1143</v>
       </c>
       <c r="B1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9646,7 +9646,7 @@
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -10102,7 +10102,7 @@
         <v>1214</v>
       </c>
       <c r="B1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10798,7 +10798,7 @@
         <v>1301</v>
       </c>
       <c r="B1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -11006,7 +11006,7 @@
         <v>1327</v>
       </c>
       <c r="B1329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11294,7 +11294,7 @@
         <v>1363</v>
       </c>
       <c r="B1365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11462,7 +11462,7 @@
         <v>1384</v>
       </c>
       <c r="B1386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11478,7 +11478,7 @@
         <v>1386</v>
       </c>
       <c r="B1388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11606,7 +11606,7 @@
         <v>1402</v>
       </c>
       <c r="B1404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11726,7 +11726,7 @@
         <v>1417</v>
       </c>
       <c r="B1419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11782,7 +11782,7 @@
         <v>1424</v>
       </c>
       <c r="B1426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -12094,7 +12094,7 @@
         <v>1463</v>
       </c>
       <c r="B1465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12286,7 +12286,7 @@
         <v>1487</v>
       </c>
       <c r="B1489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12382,7 +12382,7 @@
         <v>1499</v>
       </c>
       <c r="B1501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12614,7 +12614,7 @@
         <v>1528</v>
       </c>
       <c r="B1530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -13014,7 +13014,7 @@
         <v>1578</v>
       </c>
       <c r="B1580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -13374,7 +13374,7 @@
         <v>1623</v>
       </c>
       <c r="B1625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13790,7 +13790,7 @@
         <v>1675</v>
       </c>
       <c r="B1677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13966,7 +13966,7 @@
         <v>1697</v>
       </c>
       <c r="B1699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14294,7 +14294,7 @@
         <v>1738</v>
       </c>
       <c r="B1740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14302,7 +14302,7 @@
         <v>1739</v>
       </c>
       <c r="B1741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14494,7 +14494,7 @@
         <v>1763</v>
       </c>
       <c r="B1765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14598,7 +14598,7 @@
         <v>1776</v>
       </c>
       <c r="B1778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14662,7 +14662,7 @@
         <v>1784</v>
       </c>
       <c r="B1786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14678,7 +14678,7 @@
         <v>1786</v>
       </c>
       <c r="B1788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14806,7 +14806,7 @@
         <v>1802</v>
       </c>
       <c r="B1804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -15062,7 +15062,7 @@
         <v>1834</v>
       </c>
       <c r="B1836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15630,7 +15630,7 @@
         <v>1905</v>
       </c>
       <c r="B1907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -16222,7 +16222,7 @@
         <v>1979</v>
       </c>
       <c r="B1981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16454,7 +16454,7 @@
         <v>2008</v>
       </c>
       <c r="B2010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16486,7 +16486,7 @@
         <v>2012</v>
       </c>
       <c r="B2014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16654,7 +16654,7 @@
         <v>2033</v>
       </c>
       <c r="B2035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -17062,7 +17062,7 @@
         <v>2084</v>
       </c>
       <c r="B2086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17134,7 +17134,7 @@
         <v>2093</v>
       </c>
       <c r="B2095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -18022,7 +18022,7 @@
         <v>2204</v>
       </c>
       <c r="B2206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2207" spans="1:2">
@@ -18030,7 +18030,7 @@
         <v>2205</v>
       </c>
       <c r="B2207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18246,7 +18246,7 @@
         <v>2232</v>
       </c>
       <c r="B2234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18286,7 +18286,7 @@
         <v>2237</v>
       </c>
       <c r="B2239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18446,7 +18446,7 @@
         <v>2257</v>
       </c>
       <c r="B2259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18502,7 +18502,7 @@
         <v>2264</v>
       </c>
       <c r="B2266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18510,7 +18510,7 @@
         <v>2265</v>
       </c>
       <c r="B2267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2268" spans="1:2">
@@ -18654,7 +18654,7 @@
         <v>2283</v>
       </c>
       <c r="B2285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -19326,7 +19326,7 @@
         <v>2367</v>
       </c>
       <c r="B2369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19422,7 +19422,7 @@
         <v>2379</v>
       </c>
       <c r="B2381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19502,7 +19502,7 @@
         <v>2389</v>
       </c>
       <c r="B2391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19566,7 +19566,7 @@
         <v>2397</v>
       </c>
       <c r="B2399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2400" spans="1:2">
@@ -19598,7 +19598,7 @@
         <v>2401</v>
       </c>
       <c r="B2403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19742,7 +19742,7 @@
         <v>2419</v>
       </c>
       <c r="B2421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19782,7 +19782,7 @@
         <v>2424</v>
       </c>
       <c r="B2426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427" spans="1:2">
@@ -19950,7 +19950,7 @@
         <v>2445</v>
       </c>
       <c r="B2447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20094,7 +20094,7 @@
         <v>2463</v>
       </c>
       <c r="B2465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20126,7 +20126,7 @@
         <v>2467</v>
       </c>
       <c r="B2469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20150,7 +20150,7 @@
         <v>2470</v>
       </c>
       <c r="B2472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20286,7 +20286,7 @@
         <v>2487</v>
       </c>
       <c r="B2489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20574,7 +20574,7 @@
         <v>2523</v>
       </c>
       <c r="B2525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20702,7 +20702,7 @@
         <v>2539</v>
       </c>
       <c r="B2541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20758,7 +20758,7 @@
         <v>2546</v>
       </c>
       <c r="B2548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20846,7 +20846,7 @@
         <v>2557</v>
       </c>
       <c r="B2559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20854,7 +20854,7 @@
         <v>2558</v>
       </c>
       <c r="B2560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -20918,7 +20918,7 @@
         <v>2566</v>
       </c>
       <c r="B2568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20950,7 +20950,7 @@
         <v>2570</v>
       </c>
       <c r="B2572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -20966,7 +20966,7 @@
         <v>2572</v>
       </c>
       <c r="B2574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -21262,7 +21262,7 @@
         <v>2609</v>
       </c>
       <c r="B2611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21662,7 +21662,7 @@
         <v>2659</v>
       </c>
       <c r="B2661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21830,7 +21830,7 @@
         <v>2680</v>
       </c>
       <c r="B2682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21958,7 +21958,7 @@
         <v>2696</v>
       </c>
       <c r="B2698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21966,7 +21966,7 @@
         <v>2697</v>
       </c>
       <c r="B2699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22182,7 +22182,7 @@
         <v>2724</v>
       </c>
       <c r="B2726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22470,7 +22470,7 @@
         <v>2760</v>
       </c>
       <c r="B2762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2763" spans="1:2">
@@ -22926,7 +22926,7 @@
         <v>2817</v>
       </c>
       <c r="B2819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -23030,7 +23030,7 @@
         <v>2830</v>
       </c>
       <c r="B2832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23118,7 +23118,7 @@
         <v>2841</v>
       </c>
       <c r="B2843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23422,7 +23422,7 @@
         <v>2879</v>
       </c>
       <c r="B2881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23550,7 +23550,7 @@
         <v>2895</v>
       </c>
       <c r="B2897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23654,7 +23654,7 @@
         <v>2908</v>
       </c>
       <c r="B2910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -23830,7 +23830,7 @@
         <v>2930</v>
       </c>
       <c r="B2932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23862,7 +23862,7 @@
         <v>2934</v>
       </c>
       <c r="B2936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23870,7 +23870,7 @@
         <v>2935</v>
       </c>
       <c r="B2937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23878,7 +23878,7 @@
         <v>2936</v>
       </c>
       <c r="B2938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2939" spans="1:2">
@@ -23990,7 +23990,7 @@
         <v>2950</v>
       </c>
       <c r="B2952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24206,7 +24206,7 @@
         <v>2977</v>
       </c>
       <c r="B2979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2980" spans="1:2">
@@ -24694,7 +24694,7 @@
         <v>3038</v>
       </c>
       <c r="B3040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3041" spans="1:2">
@@ -24710,7 +24710,7 @@
         <v>3040</v>
       </c>
       <c r="B3042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043" spans="1:2">
@@ -24982,7 +24982,7 @@
         <v>3074</v>
       </c>
       <c r="B3076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -25342,7 +25342,7 @@
         <v>3119</v>
       </c>
       <c r="B3121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25454,7 +25454,7 @@
         <v>3133</v>
       </c>
       <c r="B3135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25606,7 +25606,7 @@
         <v>3152</v>
       </c>
       <c r="B3154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25654,7 +25654,7 @@
         <v>3158</v>
       </c>
       <c r="B3160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25774,7 +25774,7 @@
         <v>3173</v>
       </c>
       <c r="B3175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25806,7 +25806,7 @@
         <v>3177</v>
       </c>
       <c r="B3179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25854,7 +25854,7 @@
         <v>3183</v>
       </c>
       <c r="B3185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3186" spans="1:2">
@@ -25894,7 +25894,7 @@
         <v>3188</v>
       </c>
       <c r="B3190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25990,7 +25990,7 @@
         <v>3200</v>
       </c>
       <c r="B3202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26030,7 +26030,7 @@
         <v>3205</v>
       </c>
       <c r="B3207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26230,7 +26230,7 @@
         <v>3230</v>
       </c>
       <c r="B3232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26366,7 +26366,7 @@
         <v>3247</v>
       </c>
       <c r="B3249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26550,7 +26550,7 @@
         <v>3270</v>
       </c>
       <c r="B3272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26702,7 +26702,7 @@
         <v>3289</v>
       </c>
       <c r="B3291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26942,7 +26942,7 @@
         <v>3319</v>
       </c>
       <c r="B3321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:2">
@@ -27014,7 +27014,7 @@
         <v>3328</v>
       </c>
       <c r="B3330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27302,7 +27302,7 @@
         <v>3364</v>
       </c>
       <c r="B3366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27366,7 +27366,7 @@
         <v>3372</v>
       </c>
       <c r="B3374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27406,7 +27406,7 @@
         <v>3377</v>
       </c>
       <c r="B3379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27446,7 +27446,7 @@
         <v>3382</v>
       </c>
       <c r="B3384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:2">
@@ -27502,7 +27502,7 @@
         <v>3389</v>
       </c>
       <c r="B3391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27646,7 +27646,7 @@
         <v>3407</v>
       </c>
       <c r="B3409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27774,7 +27774,7 @@
         <v>3423</v>
       </c>
       <c r="B3425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27846,7 +27846,7 @@
         <v>3432</v>
       </c>
       <c r="B3434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27870,7 +27870,7 @@
         <v>3435</v>
       </c>
       <c r="B3437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -28198,7 +28198,7 @@
         <v>3476</v>
       </c>
       <c r="B3478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28718,7 +28718,7 @@
         <v>3541</v>
       </c>
       <c r="B3543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28766,7 +28766,7 @@
         <v>3547</v>
       </c>
       <c r="B3549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -28774,7 +28774,7 @@
         <v>3548</v>
       </c>
       <c r="B3550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -28814,7 +28814,7 @@
         <v>3553</v>
       </c>
       <c r="B3555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28838,7 +28838,7 @@
         <v>3556</v>
       </c>
       <c r="B3558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -29006,7 +29006,7 @@
         <v>3577</v>
       </c>
       <c r="B3579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -29238,7 +29238,7 @@
         <v>3606</v>
       </c>
       <c r="B3608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29254,7 +29254,7 @@
         <v>3608</v>
       </c>
       <c r="B3610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29310,7 +29310,7 @@
         <v>3615</v>
       </c>
       <c r="B3617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29390,7 +29390,7 @@
         <v>3625</v>
       </c>
       <c r="B3627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29446,7 +29446,7 @@
         <v>3632</v>
       </c>
       <c r="B3634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29870,7 +29870,7 @@
         <v>3685</v>
       </c>
       <c r="B3687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -30038,7 +30038,7 @@
         <v>3706</v>
       </c>
       <c r="B3708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30262,7 +30262,7 @@
         <v>3734</v>
       </c>
       <c r="B3736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30374,7 +30374,7 @@
         <v>3748</v>
       </c>
       <c r="B3750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30470,7 +30470,7 @@
         <v>3760</v>
       </c>
       <c r="B3762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -30582,7 +30582,7 @@
         <v>3774</v>
       </c>
       <c r="B3776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30598,7 +30598,7 @@
         <v>3776</v>
       </c>
       <c r="B3778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30654,7 +30654,7 @@
         <v>3783</v>
       </c>
       <c r="B3785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30718,7 +30718,7 @@
         <v>3791</v>
       </c>
       <c r="B3793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
@@ -31070,7 +31070,7 @@
         <v>3835</v>
       </c>
       <c r="B3837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31102,7 +31102,7 @@
         <v>3839</v>
       </c>
       <c r="B3841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31142,7 +31142,7 @@
         <v>3844</v>
       </c>
       <c r="B3846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3847" spans="1:2">
@@ -31190,7 +31190,7 @@
         <v>3850</v>
       </c>
       <c r="B3852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31222,7 +31222,7 @@
         <v>3854</v>
       </c>
       <c r="B3856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31262,7 +31262,7 @@
         <v>3859</v>
       </c>
       <c r="B3861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31270,7 +31270,7 @@
         <v>3860</v>
       </c>
       <c r="B3862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31350,7 +31350,7 @@
         <v>3870</v>
       </c>
       <c r="B3872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31358,7 +31358,7 @@
         <v>3871</v>
       </c>
       <c r="B3873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31462,7 +31462,7 @@
         <v>3884</v>
       </c>
       <c r="B3886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3887" spans="1:2">
@@ -31750,7 +31750,7 @@
         <v>3920</v>
       </c>
       <c r="B3922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31958,7 +31958,7 @@
         <v>3946</v>
       </c>
       <c r="B3948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -32030,7 +32030,7 @@
         <v>3955</v>
       </c>
       <c r="B3957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32926,7 +32926,7 @@
         <v>4067</v>
       </c>
       <c r="B4069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -33190,7 +33190,7 @@
         <v>4100</v>
       </c>
       <c r="B4102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33270,7 +33270,7 @@
         <v>4110</v>
       </c>
       <c r="B4112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33278,7 +33278,7 @@
         <v>4111</v>
       </c>
       <c r="B4113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33334,7 +33334,7 @@
         <v>4118</v>
       </c>
       <c r="B4120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33470,7 +33470,7 @@
         <v>4135</v>
       </c>
       <c r="B4137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33606,7 +33606,7 @@
         <v>4152</v>
       </c>
       <c r="B4154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4155" spans="1:2">
